--- a/biology/Médecine/CHU_Hassan_II_(Fès)/CHU_Hassan_II_(Fès).xlsx
+++ b/biology/Médecine/CHU_Hassan_II_(Fès)/CHU_Hassan_II_(Fès).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHU_Hassan_II_(F%C3%A8s)</t>
+          <t>CHU_Hassan_II_(Fès)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU Hassan II (Fès) est un centre hospitalier universitaire situé dans la ville de Fès, à proximité de la faculté de médecine et de pharmacie.
-Ce centre s'étend sur une superficie de 12 hectares, et il est sous la juridiction du ministère marocain de la Santé. Il se compose de 5 hôpitaux: Hôpital des Spécialités, Hôpital Mère-Enfant, Hôpital d’Oncologie, Hôpital Omar Drissi, Hôpital Ibn Al Hassan[1],[2],[3],[4],[5].
+Ce centre s'étend sur une superficie de 12 hectares, et il est sous la juridiction du ministère marocain de la Santé. Il se compose de 5 hôpitaux: Hôpital des Spécialités, Hôpital Mère-Enfant, Hôpital d’Oncologie, Hôpital Omar Drissi, Hôpital Ibn Al Hassan.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHU_Hassan_II_(F%C3%A8s)</t>
+          <t>CHU_Hassan_II_(Fès)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU Hassan II (Fès) a été inauguré le 14 janvier 2009 par le roi Mohammed VI[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU Hassan II (Fès) a été inauguré le 14 janvier 2009 par le roi Mohammed VI,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHU_Hassan_II_(F%C3%A8s)</t>
+          <t>CHU_Hassan_II_(Fès)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Capacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital des Spécialités (585 lits)
 Hôpital Mère-Enfant
